--- a/Største 50 alle næringer.xlsx
+++ b/Største 50 alle næringer.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>orgnr</t>
   </si>
@@ -37,7 +34,7 @@
     <t>sn2007</t>
   </si>
   <si>
-    <t>sn2007s</t>
+    <t>sn2007s_tosifrer</t>
   </si>
   <si>
     <t>selskap_form</t>
@@ -55,9 +52,6 @@
     <t>oms2022</t>
   </si>
   <si>
-    <t>sn2007s_tosifrer</t>
-  </si>
-  <si>
     <t>rapportert_utslipp_ind</t>
   </si>
   <si>
@@ -266,69 +260,6 @@
   </si>
   <si>
     <t>HADSEL</t>
-  </si>
-  <si>
-    <t>06100</t>
-  </si>
-  <si>
-    <t>64190</t>
-  </si>
-  <si>
-    <t>06200</t>
-  </si>
-  <si>
-    <t>35111</t>
-  </si>
-  <si>
-    <t>63110.0</t>
-  </si>
-  <si>
-    <t>86101.0</t>
-  </si>
-  <si>
-    <t>64190.0</t>
-  </si>
-  <si>
-    <t>61200</t>
-  </si>
-  <si>
-    <t>6100.0</t>
-  </si>
-  <si>
-    <t>64920</t>
-  </si>
-  <si>
-    <t>35120</t>
-  </si>
-  <si>
-    <t>86101</t>
-  </si>
-  <si>
-    <t>41200</t>
-  </si>
-  <si>
-    <t>65120</t>
-  </si>
-  <si>
-    <t>03211</t>
-  </si>
-  <si>
-    <t>42120</t>
-  </si>
-  <si>
-    <t>92000.0</t>
-  </si>
-  <si>
-    <t>53100</t>
-  </si>
-  <si>
-    <t>30113</t>
-  </si>
-  <si>
-    <t>65120.0</t>
-  </si>
-  <si>
-    <t>49500.0</t>
   </si>
   <si>
     <t>AS</t>
@@ -701,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,2660 +681,2354 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>918110127</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>158515</v>
-      </c>
-      <c r="C2">
-        <v>918110127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>1124</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>4056</v>
       </c>
       <c r="G2">
-        <v>4056</v>
+        <v>6100</v>
       </c>
       <c r="H2">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>55806000</v>
       </c>
       <c r="M2">
-        <v>55806000</v>
+        <v>71279000</v>
       </c>
       <c r="N2">
-        <v>71279000</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>470454</v>
-      </c>
-      <c r="C3">
         <v>984851006</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>301</v>
       </c>
-      <c r="F3" t="s">
-        <v>67</v>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>191</v>
       </c>
       <c r="G3">
-        <v>191</v>
+        <v>64190</v>
       </c>
       <c r="H3">
-        <v>64190</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="J3">
+        <v>7547</v>
       </c>
       <c r="K3">
         <v>7547</v>
       </c>
       <c r="L3">
-        <v>7547</v>
+        <v>50902000</v>
       </c>
       <c r="M3">
-        <v>50902000</v>
+        <v>57696000</v>
       </c>
       <c r="N3">
-        <v>57696000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>64</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>473717</v>
-      </c>
-      <c r="C4">
         <v>985224323</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
         <v>1103</v>
       </c>
-      <c r="F4" t="s">
-        <v>68</v>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>4020</v>
       </c>
       <c r="G4">
-        <v>4020</v>
+        <v>6100</v>
       </c>
       <c r="H4">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>288</v>
       </c>
       <c r="K4">
         <v>288</v>
       </c>
       <c r="L4">
-        <v>288</v>
+        <v>49955400</v>
       </c>
       <c r="M4">
-        <v>49955400</v>
+        <v>58017553</v>
       </c>
       <c r="N4">
-        <v>58017553</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>507364</v>
-      </c>
-      <c r="C5">
         <v>988400025</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>1103</v>
       </c>
-      <c r="F5" t="s">
-        <v>68</v>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>4020</v>
       </c>
       <c r="G5">
-        <v>4020</v>
+        <v>6100</v>
       </c>
       <c r="H5">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J5">
+        <v>62</v>
       </c>
       <c r="K5">
         <v>62</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>45075984</v>
       </c>
       <c r="M5">
-        <v>45075984</v>
+        <v>49851834</v>
       </c>
       <c r="N5">
-        <v>49851834</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>563028</v>
-      </c>
-      <c r="C6">
         <v>991317155</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>1124</v>
       </c>
-      <c r="F6" t="s">
-        <v>66</v>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>4033</v>
       </c>
       <c r="G6">
-        <v>4033</v>
+        <v>6200</v>
       </c>
       <c r="H6">
-        <v>6200</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J6">
+        <v>75</v>
       </c>
       <c r="K6">
         <v>75</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>39635000</v>
       </c>
       <c r="M6">
-        <v>39635000</v>
+        <v>43036000</v>
       </c>
       <c r="N6">
-        <v>43036000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>492242</v>
-      </c>
-      <c r="C7">
         <v>987059729</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>301</v>
       </c>
-      <c r="F7" t="s">
-        <v>67</v>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>283</v>
       </c>
       <c r="G7">
-        <v>283</v>
+        <v>35111</v>
       </c>
       <c r="H7">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>1020</v>
       </c>
       <c r="K7">
         <v>1020</v>
       </c>
       <c r="L7">
-        <v>1020</v>
+        <v>36296000</v>
       </c>
       <c r="M7">
-        <v>36296000</v>
+        <v>58210000</v>
       </c>
       <c r="N7">
-        <v>58210000</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>35</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>208623</v>
-      </c>
-      <c r="C8">
         <v>921416873</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>301</v>
       </c>
-      <c r="F8" t="s">
-        <v>67</v>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>161</v>
       </c>
       <c r="G8">
-        <v>161</v>
+        <v>63110</v>
       </c>
       <c r="H8">
-        <v>63110</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="J8">
+        <v>51</v>
       </c>
       <c r="K8">
         <v>51</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>22001440</v>
       </c>
       <c r="M8">
-        <v>22001440</v>
+        <v>122602628</v>
       </c>
       <c r="N8">
-        <v>122602628</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>63</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>593575</v>
-      </c>
-      <c r="C9">
         <v>993467049</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
         <v>301</v>
       </c>
-      <c r="F9" t="s">
-        <v>67</v>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>450</v>
       </c>
       <c r="G9">
-        <v>450</v>
+        <v>86101</v>
       </c>
       <c r="H9">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>23709</v>
       </c>
       <c r="K9">
         <v>23709</v>
       </c>
       <c r="L9">
-        <v>23709</v>
+        <v>20352936</v>
       </c>
       <c r="M9">
-        <v>20352936</v>
+        <v>28339951</v>
       </c>
       <c r="N9">
-        <v>28339951</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>86</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>188064</v>
-      </c>
-      <c r="C10">
         <v>920058817</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <v>301</v>
       </c>
-      <c r="F10" t="s">
-        <v>67</v>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>368</v>
       </c>
       <c r="G10">
-        <v>368</v>
+        <v>64190</v>
       </c>
       <c r="H10">
-        <v>64190</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="J10">
+        <v>2204</v>
       </c>
       <c r="K10">
         <v>2204</v>
       </c>
       <c r="L10">
-        <v>2204</v>
+        <v>16923932</v>
       </c>
       <c r="M10">
-        <v>16923932</v>
+        <v>19880900</v>
       </c>
       <c r="N10">
-        <v>19880900</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>64</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>408387</v>
-      </c>
-      <c r="C11">
         <v>976967631</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
         <v>3024</v>
       </c>
-      <c r="F11" t="s">
-        <v>69</v>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>1360</v>
       </c>
       <c r="G11">
-        <v>1360</v>
+        <v>61200</v>
       </c>
       <c r="H11">
-        <v>61200</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J11">
+        <v>3235</v>
       </c>
       <c r="K11">
         <v>3235</v>
       </c>
       <c r="L11">
-        <v>3235</v>
+        <v>14938000</v>
       </c>
       <c r="M11">
-        <v>14938000</v>
+        <v>25304000</v>
       </c>
       <c r="N11">
-        <v>25304000</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>61</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>629660</v>
-      </c>
-      <c r="C12">
         <v>996888177</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
         <v>1103</v>
       </c>
-      <c r="F12" t="s">
-        <v>68</v>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>4007</v>
       </c>
       <c r="G12">
-        <v>4007</v>
+        <v>6100</v>
       </c>
       <c r="H12">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J12">
+        <v>171</v>
       </c>
       <c r="K12">
         <v>171</v>
       </c>
       <c r="L12">
-        <v>171</v>
+        <v>13512000</v>
       </c>
       <c r="M12">
-        <v>13512000</v>
+        <v>17902000</v>
       </c>
       <c r="N12">
-        <v>17902000</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>562805</v>
-      </c>
-      <c r="C13">
         <v>991303995</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
         <v>301</v>
       </c>
-      <c r="F13" t="s">
-        <v>67</v>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <v>252</v>
       </c>
       <c r="G13">
-        <v>252</v>
+        <v>64920</v>
       </c>
       <c r="H13">
-        <v>64920</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13484738</v>
       </c>
       <c r="M13">
-        <v>13484738</v>
+        <v>15321233</v>
       </c>
       <c r="N13">
-        <v>15321233</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>64</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>376934</v>
-      </c>
-      <c r="C14">
         <v>962986633</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
-        <v>67</v>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>484</v>
       </c>
       <c r="G14">
-        <v>484</v>
+        <v>35120</v>
       </c>
       <c r="H14">
-        <v>35120</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="J14">
+        <v>1654</v>
       </c>
       <c r="K14">
         <v>1654</v>
       </c>
       <c r="L14">
-        <v>1654</v>
+        <v>12049000</v>
       </c>
       <c r="M14">
-        <v>12049000</v>
+        <v>21995000</v>
       </c>
       <c r="N14">
-        <v>21995000</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>35</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>353943</v>
-      </c>
-      <c r="C15">
         <v>946680591</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
         <v>1103</v>
       </c>
-      <c r="F15" t="s">
-        <v>68</v>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>4005</v>
       </c>
       <c r="G15">
-        <v>4005</v>
+        <v>6100</v>
       </c>
       <c r="H15">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
       </c>
       <c r="K15">
         <v>19</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>11097882</v>
       </c>
       <c r="M15">
-        <v>11097882</v>
+        <v>14689159</v>
       </c>
       <c r="N15">
-        <v>14689159</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>461438</v>
-      </c>
-      <c r="C16">
         <v>983974724</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
         <v>4601</v>
       </c>
-      <c r="F16" t="s">
-        <v>70</v>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16">
+        <v>5021</v>
       </c>
       <c r="G16">
-        <v>5021</v>
+        <v>86101</v>
       </c>
       <c r="H16">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J16">
+        <v>13245</v>
       </c>
       <c r="K16">
         <v>13245</v>
       </c>
       <c r="L16">
-        <v>13245</v>
+        <v>10621528</v>
       </c>
       <c r="M16">
-        <v>10621528</v>
+        <v>14839574</v>
       </c>
       <c r="N16">
-        <v>14839574</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>86</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>363637</v>
-      </c>
-      <c r="C17">
         <v>953133210</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
         <v>3024</v>
       </c>
-      <c r="F17" t="s">
-        <v>69</v>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>1366</v>
       </c>
       <c r="G17">
-        <v>1366</v>
+        <v>6100</v>
       </c>
       <c r="H17">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J17">
+        <v>68</v>
       </c>
       <c r="K17">
         <v>68</v>
       </c>
       <c r="L17">
-        <v>68</v>
+        <v>10461814</v>
       </c>
       <c r="M17">
-        <v>10461814</v>
+        <v>11967003</v>
       </c>
       <c r="N17">
-        <v>11967003</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>462013</v>
-      </c>
-      <c r="C18">
         <v>984024290</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
         <v>301</v>
       </c>
-      <c r="F18" t="s">
-        <v>67</v>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>278</v>
       </c>
       <c r="G18">
-        <v>278</v>
+        <v>41200</v>
       </c>
       <c r="H18">
-        <v>41200</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J18">
+        <v>2545</v>
       </c>
       <c r="K18">
         <v>2545</v>
       </c>
       <c r="L18">
-        <v>2545</v>
+        <v>10439976</v>
       </c>
       <c r="M18">
-        <v>10439976</v>
+        <v>13808541</v>
       </c>
       <c r="N18">
-        <v>13808541</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>41</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>400100</v>
-      </c>
-      <c r="C19">
         <v>975798658</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
         <v>1103</v>
       </c>
-      <c r="F19" t="s">
-        <v>68</v>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>4035</v>
       </c>
       <c r="G19">
-        <v>4035</v>
+        <v>6100</v>
       </c>
       <c r="H19">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10053459</v>
       </c>
       <c r="M19">
-        <v>10053459</v>
+        <v>10625094</v>
       </c>
       <c r="N19">
-        <v>10625094</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>337343</v>
-      </c>
-      <c r="C20">
         <v>931713671</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
         <v>3813</v>
       </c>
-      <c r="F20" t="s">
-        <v>71</v>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20">
+        <v>3966</v>
       </c>
       <c r="G20">
-        <v>3966</v>
+        <v>6100</v>
       </c>
       <c r="H20">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9987854</v>
       </c>
       <c r="M20">
-        <v>9987854</v>
+        <v>10978398</v>
       </c>
       <c r="N20">
-        <v>10978398</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34389</v>
-      </c>
-      <c r="C21">
         <v>876944642</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>4601</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <v>5058</v>
+      </c>
+      <c r="G21">
+        <v>35111</v>
+      </c>
+      <c r="H21">
         <v>35</v>
       </c>
-      <c r="E21">
-        <v>4601</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>5058</v>
-      </c>
-      <c r="H21">
-        <v>35111</v>
-      </c>
       <c r="I21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J21">
+        <v>178</v>
       </c>
       <c r="K21">
         <v>178</v>
       </c>
       <c r="L21">
-        <v>178</v>
+        <v>9536812</v>
       </c>
       <c r="M21">
-        <v>9536812</v>
+        <v>10569722</v>
       </c>
       <c r="N21">
-        <v>10569722</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>35</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>439234</v>
-      </c>
-      <c r="C22">
         <v>981290666</v>
       </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
         <v>301</v>
       </c>
-      <c r="F22" t="s">
-        <v>67</v>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>283</v>
       </c>
       <c r="G22">
-        <v>283</v>
+        <v>65120</v>
       </c>
       <c r="H22">
-        <v>65120</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="J22">
+        <v>1561</v>
       </c>
       <c r="K22">
         <v>1561</v>
       </c>
       <c r="L22">
-        <v>1561</v>
+        <v>9323157</v>
       </c>
       <c r="M22">
-        <v>9323157</v>
+        <v>48737454</v>
       </c>
       <c r="N22">
-        <v>48737454</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>65</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>181190</v>
-      </c>
-      <c r="C23">
         <v>919603771</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
         <v>1103</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>4005</v>
       </c>
       <c r="G23">
-        <v>4005</v>
+        <v>6100</v>
       </c>
       <c r="H23">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8875892</v>
       </c>
       <c r="M23">
-        <v>8875892</v>
+        <v>9888340</v>
       </c>
       <c r="N23">
-        <v>9888340</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>6</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>413208</v>
-      </c>
-      <c r="C24">
         <v>977312043</v>
       </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24">
         <v>1103</v>
       </c>
-      <c r="F24" t="s">
-        <v>68</v>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>4035</v>
       </c>
       <c r="G24">
-        <v>4035</v>
+        <v>6100</v>
       </c>
       <c r="H24">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8860919</v>
       </c>
       <c r="M24">
-        <v>8860919</v>
+        <v>10095255</v>
       </c>
       <c r="N24">
-        <v>10095255</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>6</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>416211</v>
-      </c>
-      <c r="C25">
         <v>978690920</v>
       </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25">
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
         <v>3005</v>
       </c>
-      <c r="F25" t="s">
-        <v>72</v>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>3039</v>
       </c>
       <c r="G25">
-        <v>3039</v>
+        <v>64920</v>
       </c>
       <c r="H25">
-        <v>64920</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="J25">
+        <v>46</v>
       </c>
       <c r="K25">
         <v>46</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>8836082</v>
       </c>
       <c r="M25">
-        <v>8836082</v>
+        <v>10756851</v>
       </c>
       <c r="N25">
-        <v>10756851</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>64</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>39637</v>
-      </c>
-      <c r="C26">
         <v>883974832</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
         <v>5001</v>
       </c>
-      <c r="F26" t="s">
-        <v>73</v>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>7030</v>
       </c>
       <c r="G26">
-        <v>7030</v>
+        <v>86101</v>
       </c>
       <c r="H26">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>10875</v>
       </c>
       <c r="K26">
         <v>10875</v>
       </c>
       <c r="L26">
-        <v>10875</v>
+        <v>8719220</v>
       </c>
       <c r="M26">
-        <v>8719220</v>
+        <v>13026801</v>
       </c>
       <c r="N26">
-        <v>13026801</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>86</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>378841</v>
-      </c>
-      <c r="C27">
         <v>964118191</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27">
         <v>4601</v>
       </c>
-      <c r="F27" t="s">
-        <v>70</v>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27">
+        <v>5035</v>
       </c>
       <c r="G27">
-        <v>5035</v>
+        <v>3211</v>
       </c>
       <c r="H27">
-        <v>3211</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="J27">
+        <v>2070</v>
       </c>
       <c r="K27">
         <v>2070</v>
       </c>
       <c r="L27">
-        <v>2070</v>
+        <v>8709648</v>
       </c>
       <c r="M27">
-        <v>8709648</v>
+        <v>20965800</v>
       </c>
       <c r="N27">
-        <v>20965800</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>461399</v>
-      </c>
-      <c r="C28">
         <v>983971636</v>
       </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28">
         <v>3029</v>
       </c>
-      <c r="F28" t="s">
-        <v>74</v>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <v>1474</v>
       </c>
       <c r="G28">
-        <v>1474</v>
+        <v>86101</v>
       </c>
       <c r="H28">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J28">
+        <v>10292</v>
       </c>
       <c r="K28">
         <v>10292</v>
       </c>
       <c r="L28">
-        <v>10292</v>
+        <v>8495454</v>
       </c>
       <c r="M28">
-        <v>8495454</v>
+        <v>13167788</v>
       </c>
       <c r="N28">
-        <v>13167788</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>86</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>429921</v>
-      </c>
-      <c r="C29">
         <v>980335216</v>
       </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
         <v>1103</v>
       </c>
-      <c r="F29" t="s">
-        <v>68</v>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>4017</v>
       </c>
       <c r="G29">
-        <v>4017</v>
+        <v>35111</v>
       </c>
       <c r="H29">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J29">
+        <v>31</v>
       </c>
       <c r="K29">
         <v>31</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>8416692</v>
       </c>
       <c r="M29">
-        <v>8416692</v>
+        <v>10837769</v>
       </c>
       <c r="N29">
-        <v>10837769</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>35</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>143101</v>
-      </c>
-      <c r="C30">
         <v>917082308</v>
       </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
         <v>301</v>
       </c>
-      <c r="F30" t="s">
-        <v>67</v>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30">
+        <v>191</v>
       </c>
       <c r="G30">
-        <v>191</v>
+        <v>42120</v>
       </c>
       <c r="H30">
-        <v>42120</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="J30">
+        <v>3254</v>
       </c>
       <c r="K30">
         <v>3254</v>
       </c>
       <c r="L30">
-        <v>3254</v>
+        <v>7795000</v>
       </c>
       <c r="M30">
-        <v>7795000</v>
+        <v>14640000</v>
       </c>
       <c r="N30">
-        <v>14640000</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>42</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>53405</v>
-      </c>
-      <c r="C31">
         <v>894166762</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
         <v>3005</v>
       </c>
-      <c r="F31" t="s">
-        <v>72</v>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>3045</v>
       </c>
       <c r="G31">
-        <v>3045</v>
+        <v>86101</v>
       </c>
       <c r="H31">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J31">
+        <v>9634</v>
       </c>
       <c r="K31">
         <v>9634</v>
       </c>
       <c r="L31">
-        <v>9634</v>
+        <v>7759924</v>
       </c>
       <c r="M31">
-        <v>7759924</v>
+        <v>11648621</v>
       </c>
       <c r="N31">
-        <v>11648621</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>86</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>268676</v>
-      </c>
-      <c r="C32">
         <v>925836613</v>
       </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
         <v>3403</v>
       </c>
-      <c r="F32" t="s">
-        <v>75</v>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <v>2315</v>
       </c>
       <c r="G32">
-        <v>2315</v>
+        <v>92000</v>
       </c>
       <c r="H32">
-        <v>92000</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <v>470</v>
       </c>
       <c r="K32">
         <v>470</v>
       </c>
       <c r="L32">
-        <v>470</v>
+        <v>7142499</v>
       </c>
       <c r="M32">
-        <v>7142499</v>
+        <v>46707220</v>
       </c>
       <c r="N32">
-        <v>46707220</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>92</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>444411</v>
-      </c>
-      <c r="C33">
         <v>981929055</v>
       </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33">
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
         <v>301</v>
       </c>
-      <c r="F33" t="s">
-        <v>67</v>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33">
+        <v>585</v>
       </c>
       <c r="G33">
-        <v>585</v>
+        <v>61200</v>
       </c>
       <c r="H33">
-        <v>61200</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J33">
+        <v>2041</v>
       </c>
       <c r="K33">
         <v>2041</v>
       </c>
       <c r="L33">
-        <v>2041</v>
+        <v>7091000</v>
       </c>
       <c r="M33">
-        <v>7091000</v>
+        <v>13991000</v>
       </c>
       <c r="N33">
-        <v>13991000</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>61</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>468667</v>
-      </c>
-      <c r="C34">
         <v>984661185</v>
       </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
         <v>301</v>
       </c>
-      <c r="F34" t="s">
-        <v>67</v>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <v>185</v>
       </c>
       <c r="G34">
-        <v>185</v>
+        <v>53100</v>
       </c>
       <c r="H34">
-        <v>53100</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J34">
+        <v>11482</v>
       </c>
       <c r="K34">
         <v>11482</v>
       </c>
       <c r="L34">
-        <v>11482</v>
+        <v>6980000</v>
       </c>
       <c r="M34">
-        <v>6980000</v>
+        <v>12994000</v>
       </c>
       <c r="N34">
-        <v>12994000</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>53</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31711</v>
-      </c>
-      <c r="C35">
         <v>866009392</v>
       </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
         <v>1103</v>
       </c>
-      <c r="F35" t="s">
-        <v>68</v>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>4035</v>
       </c>
       <c r="G35">
-        <v>4035</v>
+        <v>6100</v>
       </c>
       <c r="H35">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>6749670</v>
       </c>
       <c r="M35">
-        <v>6749670</v>
+        <v>7577675</v>
       </c>
       <c r="N35">
-        <v>7577675</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>6</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>511736</v>
-      </c>
-      <c r="C36">
         <v>988714526</v>
       </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
         <v>301</v>
       </c>
-      <c r="F36" t="s">
-        <v>67</v>
+      <c r="E36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <v>250</v>
       </c>
       <c r="G36">
-        <v>250</v>
+        <v>6100</v>
       </c>
       <c r="H36">
-        <v>6100</v>
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>6661499</v>
       </c>
       <c r="M36">
-        <v>6661499</v>
+        <v>7883905</v>
       </c>
       <c r="N36">
-        <v>7883905</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>461448</v>
-      </c>
-      <c r="C37">
         <v>983974899</v>
       </c>
-      <c r="D37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
         <v>5401</v>
       </c>
-      <c r="F37" t="s">
-        <v>76</v>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>9019</v>
       </c>
       <c r="G37">
-        <v>9019</v>
+        <v>86101</v>
       </c>
       <c r="H37">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J37">
+        <v>7793</v>
       </c>
       <c r="K37">
         <v>7793</v>
       </c>
       <c r="L37">
-        <v>7793</v>
+        <v>6436232</v>
       </c>
       <c r="M37">
-        <v>6436232</v>
+        <v>9307600</v>
       </c>
       <c r="N37">
-        <v>9307600</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>86</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>421630</v>
-      </c>
-      <c r="C38">
         <v>979563531</v>
       </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
         <v>3806</v>
       </c>
-      <c r="F38" t="s">
-        <v>77</v>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38">
+        <v>3915</v>
       </c>
       <c r="G38">
-        <v>3915</v>
+        <v>35111</v>
       </c>
       <c r="H38">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J38">
+        <v>135</v>
       </c>
       <c r="K38">
         <v>135</v>
       </c>
       <c r="L38">
-        <v>135</v>
+        <v>6432021</v>
       </c>
       <c r="M38">
-        <v>6432021</v>
+        <v>7285789</v>
       </c>
       <c r="N38">
-        <v>7285789</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>35</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>469510</v>
-      </c>
-      <c r="C39">
         <v>984735227</v>
       </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
         <v>1108</v>
       </c>
-      <c r="F39" t="s">
-        <v>78</v>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>4313</v>
       </c>
       <c r="G39">
-        <v>4313</v>
+        <v>30113</v>
       </c>
       <c r="H39">
-        <v>30113</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J39">
+        <v>3383</v>
       </c>
       <c r="K39">
         <v>3383</v>
       </c>
       <c r="L39">
-        <v>3383</v>
+        <v>6340399</v>
       </c>
       <c r="M39">
-        <v>6340399</v>
+        <v>10857187</v>
       </c>
       <c r="N39">
-        <v>10857187</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>30</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>383620</v>
-      </c>
-      <c r="C40">
         <v>966840528</v>
       </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
         <v>5014</v>
       </c>
-      <c r="F40" t="s">
-        <v>79</v>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40">
+        <v>7266</v>
       </c>
       <c r="G40">
-        <v>7266</v>
+        <v>3211</v>
       </c>
       <c r="H40">
-        <v>3211</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J40">
+        <v>653</v>
       </c>
       <c r="K40">
         <v>653</v>
       </c>
       <c r="L40">
-        <v>653</v>
+        <v>6287670</v>
       </c>
       <c r="M40">
-        <v>6287670</v>
+        <v>12420230</v>
       </c>
       <c r="N40">
-        <v>12420230</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>3</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>407825</v>
-      </c>
-      <c r="C41">
         <v>976894677</v>
       </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41">
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
         <v>301</v>
       </c>
-      <c r="F41" t="s">
-        <v>67</v>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41">
+        <v>275</v>
       </c>
       <c r="G41">
-        <v>275</v>
+        <v>35111</v>
       </c>
       <c r="H41">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J41">
+        <v>402</v>
       </c>
       <c r="K41">
         <v>402</v>
       </c>
       <c r="L41">
-        <v>402</v>
+        <v>6225414</v>
       </c>
       <c r="M41">
-        <v>6225414</v>
+        <v>6528844</v>
       </c>
       <c r="N41">
-        <v>6528844</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>35</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>461405</v>
-      </c>
-      <c r="C42">
         <v>983971709</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42">
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
         <v>3411</v>
       </c>
-      <c r="F42" t="s">
-        <v>80</v>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42">
+        <v>2382</v>
       </c>
       <c r="G42">
-        <v>2382</v>
+        <v>86101</v>
       </c>
       <c r="H42">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J42">
+        <v>8639</v>
       </c>
       <c r="K42">
         <v>8639</v>
       </c>
       <c r="L42">
-        <v>8639</v>
+        <v>6202185</v>
       </c>
       <c r="M42">
-        <v>6202185</v>
+        <v>9457046</v>
       </c>
       <c r="N42">
-        <v>9457046</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>86</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>43036</v>
-      </c>
-      <c r="C43">
         <v>887396752</v>
       </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43">
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
         <v>3405</v>
       </c>
-      <c r="F43" t="s">
-        <v>81</v>
+      <c r="E43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43">
+        <v>2619</v>
       </c>
       <c r="G43">
-        <v>2619</v>
+        <v>35111</v>
       </c>
       <c r="H43">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
-      </c>
-      <c r="J43" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>6089000</v>
       </c>
       <c r="M43">
-        <v>6089000</v>
+        <v>6548000</v>
       </c>
       <c r="N43">
-        <v>6548000</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>35</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>461435</v>
-      </c>
-      <c r="C44">
         <v>983974678</v>
       </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
         <v>1103</v>
       </c>
-      <c r="F44" t="s">
-        <v>68</v>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44">
+        <v>4011</v>
       </c>
       <c r="G44">
-        <v>4011</v>
+        <v>86101</v>
       </c>
       <c r="H44">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J44">
+        <v>7700</v>
       </c>
       <c r="K44">
         <v>7700</v>
       </c>
       <c r="L44">
-        <v>7700</v>
+        <v>6037491</v>
       </c>
       <c r="M44">
-        <v>6037491</v>
+        <v>8796229</v>
       </c>
       <c r="N44">
-        <v>8796229</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>86</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>614449</v>
-      </c>
-      <c r="C45">
         <v>995568217</v>
       </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
         <v>301</v>
       </c>
-      <c r="F45" t="s">
-        <v>67</v>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45">
+        <v>191</v>
       </c>
       <c r="G45">
-        <v>191</v>
+        <v>65120</v>
       </c>
       <c r="H45">
-        <v>65120</v>
+        <v>65</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
-      </c>
-      <c r="J45" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="J45">
+        <v>1968</v>
       </c>
       <c r="K45">
         <v>1968</v>
       </c>
       <c r="L45">
-        <v>1968</v>
+        <v>5879000</v>
       </c>
       <c r="M45">
-        <v>5879000</v>
+        <v>30268000</v>
       </c>
       <c r="N45">
-        <v>30268000</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>65</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>609830</v>
-      </c>
-      <c r="C46">
         <v>995152142</v>
       </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
         <v>4601</v>
       </c>
-      <c r="F46" t="s">
-        <v>70</v>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46">
+        <v>5058</v>
       </c>
       <c r="G46">
-        <v>5058</v>
+        <v>49500</v>
       </c>
       <c r="H46">
-        <v>49500</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
-      </c>
-      <c r="J46" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J46">
+        <v>19</v>
       </c>
       <c r="K46">
         <v>19</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>5870576</v>
       </c>
       <c r="M46">
-        <v>5870576</v>
+        <v>9189674</v>
       </c>
       <c r="N46">
-        <v>9189674</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>49</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>332174</v>
-      </c>
-      <c r="C47">
         <v>930187240</v>
       </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47">
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
         <v>301</v>
       </c>
-      <c r="F47" t="s">
-        <v>67</v>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47">
+        <v>283</v>
       </c>
       <c r="G47">
-        <v>283</v>
+        <v>35111</v>
       </c>
       <c r="H47">
-        <v>35111</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J47">
+        <v>293</v>
       </c>
       <c r="K47">
         <v>293</v>
       </c>
       <c r="L47">
-        <v>293</v>
+        <v>5778000</v>
       </c>
       <c r="M47">
-        <v>5778000</v>
+        <v>12275000</v>
       </c>
       <c r="N47">
-        <v>12275000</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>35</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>477462</v>
-      </c>
-      <c r="C48">
         <v>985621551</v>
       </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
         <v>301</v>
       </c>
-      <c r="F48" t="s">
-        <v>67</v>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48">
+        <v>191</v>
       </c>
       <c r="G48">
-        <v>191</v>
+        <v>64920</v>
       </c>
       <c r="H48">
-        <v>64920</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
       </c>
       <c r="K48">
         <v>5</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>5682000</v>
       </c>
       <c r="M48">
-        <v>5682000</v>
+        <v>4329000</v>
       </c>
       <c r="N48">
-        <v>4329000</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>64</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>38813</v>
-      </c>
-      <c r="C49">
         <v>882973972</v>
       </c>
-      <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49">
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
         <v>4204</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>4630</v>
+      </c>
+      <c r="G49">
+        <v>35111</v>
+      </c>
+      <c r="H49">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s">
         <v>82</v>
       </c>
-      <c r="G49">
-        <v>4630</v>
-      </c>
-      <c r="H49">
-        <v>35111</v>
-      </c>
-      <c r="I49" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" t="s">
-        <v>105</v>
+      <c r="J49">
+        <v>144</v>
       </c>
       <c r="K49">
         <v>144</v>
       </c>
       <c r="L49">
-        <v>144</v>
+        <v>5452892</v>
       </c>
       <c r="M49">
-        <v>5452892</v>
+        <v>7419064</v>
       </c>
       <c r="N49">
-        <v>7419064</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>35</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>461458</v>
-      </c>
-      <c r="C50">
         <v>983975240</v>
       </c>
-      <c r="D50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
         <v>4204</v>
       </c>
-      <c r="F50" t="s">
-        <v>82</v>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>4615</v>
       </c>
       <c r="G50">
-        <v>4615</v>
+        <v>86101</v>
       </c>
       <c r="H50">
-        <v>86101</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="J50">
+        <v>7389</v>
       </c>
       <c r="K50">
         <v>7389</v>
       </c>
       <c r="L50">
-        <v>7389</v>
+        <v>5410391</v>
       </c>
       <c r="M50">
-        <v>5410391</v>
+        <v>8081742</v>
       </c>
       <c r="N50">
-        <v>8081742</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>86</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>366690</v>
-      </c>
-      <c r="C51">
         <v>955750802</v>
       </c>
-      <c r="D51" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51">
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
         <v>1866</v>
       </c>
-      <c r="F51" t="s">
-        <v>83</v>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51">
+        <v>8450</v>
       </c>
       <c r="G51">
-        <v>8450</v>
+        <v>3211</v>
       </c>
       <c r="H51">
-        <v>3211</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>98</v>
-      </c>
-      <c r="J51" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="J51">
+        <v>118</v>
       </c>
       <c r="K51">
         <v>118</v>
       </c>
       <c r="L51">
-        <v>118</v>
+        <v>5409166</v>
       </c>
       <c r="M51">
-        <v>5409166</v>
+        <v>9468700</v>
       </c>
       <c r="N51">
-        <v>9468700</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>3</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
         <v>0</v>
       </c>
     </row>
